--- a/LubanConfig/Datas/AvatarConfig.xlsx
+++ b/LubanConfig/Datas/AvatarConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="24045" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>##var</t>
   </si>
@@ -56,6 +56,9 @@
     <t>vip</t>
   </si>
   <si>
+    <t>describe</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -101,11 +104,14 @@
   <si>
     <t>vip解锁等级(默认0级解锁)</t>
   </si>
+  <si>
+    <t>描述(多语言id)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -135,48 +141,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -221,6 +198,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -260,6 +252,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,18 +292,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -310,19 +394,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,115 +418,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,21 +525,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -562,6 +553,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,176 +624,176 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="7" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="31" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="31" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="23" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="23" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -796,52 +802,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1115,7 +1121,7 @@
   <dimension ref="A1:AI13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1157,7 +1163,9 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -1188,27 +1196,29 @@
     </row>
     <row r="2" s="2" customFormat="1" spans="1:35">
       <c r="A2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="4"/>
+      <c r="H2" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="I2" s="4"/>
       <c r="J2" s="10"/>
       <c r="K2" s="4"/>
@@ -1242,22 +1252,24 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="13"/>
       <c r="K3" s="3"/>
@@ -1288,6 +1300,7 @@
     </row>
     <row r="4" spans="7:13">
       <c r="G4" s="5"/>
+      <c r="H4"/>
       <c r="I4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="14"/>

--- a/LubanConfig/Datas/AvatarConfig.xlsx
+++ b/LubanConfig/Datas/AvatarConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12375"/>
+    <workbookView windowWidth="24135" windowHeight="8700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="119">
   <si>
     <t>##var</t>
   </si>
@@ -107,11 +107,314 @@
   <si>
     <t>描述(多语言id)</t>
   </si>
+  <si>
+    <t>220006</t>
+  </si>
+  <si>
+    <t>默认头像1</t>
+  </si>
+  <si>
+    <t>head_2</t>
+  </si>
+  <si>
+    <t>220026</t>
+  </si>
+  <si>
+    <t>220007</t>
+  </si>
+  <si>
+    <t>默认头像2</t>
+  </si>
+  <si>
+    <t>head_4</t>
+  </si>
+  <si>
+    <t>220008</t>
+  </si>
+  <si>
+    <t>默认头像3</t>
+  </si>
+  <si>
+    <t>head_1</t>
+  </si>
+  <si>
+    <t>220009</t>
+  </si>
+  <si>
+    <t>默认头像4</t>
+  </si>
+  <si>
+    <t>head_5</t>
+  </si>
+  <si>
+    <t>220010</t>
+  </si>
+  <si>
+    <t>默认头像5</t>
+  </si>
+  <si>
+    <t>head_3</t>
+  </si>
+  <si>
+    <t>220011</t>
+  </si>
+  <si>
+    <t>默认头像6</t>
+  </si>
+  <si>
+    <t>head_6</t>
+  </si>
+  <si>
+    <t>220012</t>
+  </si>
+  <si>
+    <t>默认头像7</t>
+  </si>
+  <si>
+    <t>head_7</t>
+  </si>
+  <si>
+    <t>220013</t>
+  </si>
+  <si>
+    <t>默认头像8</t>
+  </si>
+  <si>
+    <t>head_8</t>
+  </si>
+  <si>
+    <t>220014</t>
+  </si>
+  <si>
+    <t>默认头像9</t>
+  </si>
+  <si>
+    <t>head_9</t>
+  </si>
+  <si>
+    <t>220015</t>
+  </si>
+  <si>
+    <t>默认头像10</t>
+  </si>
+  <si>
+    <t>head_10</t>
+  </si>
+  <si>
+    <t>220016</t>
+  </si>
+  <si>
+    <t>默认头像11</t>
+  </si>
+  <si>
+    <t>head_11</t>
+  </si>
+  <si>
+    <t>220017</t>
+  </si>
+  <si>
+    <t>默认头像12</t>
+  </si>
+  <si>
+    <t>head_12</t>
+  </si>
+  <si>
+    <t>220018</t>
+  </si>
+  <si>
+    <t>默认头像13</t>
+  </si>
+  <si>
+    <t>head_13</t>
+  </si>
+  <si>
+    <t>220019</t>
+  </si>
+  <si>
+    <t>默认头像14</t>
+  </si>
+  <si>
+    <t>head_14</t>
+  </si>
+  <si>
+    <t>220020</t>
+  </si>
+  <si>
+    <t>默认头像15</t>
+  </si>
+  <si>
+    <t>head_15</t>
+  </si>
+  <si>
+    <t>220021</t>
+  </si>
+  <si>
+    <t>默认头像16</t>
+  </si>
+  <si>
+    <t>head_16</t>
+  </si>
+  <si>
+    <t>220022</t>
+  </si>
+  <si>
+    <t>默认头像17</t>
+  </si>
+  <si>
+    <t>head_17</t>
+  </si>
+  <si>
+    <t>220023</t>
+  </si>
+  <si>
+    <t>默认头像18</t>
+  </si>
+  <si>
+    <t>head_18</t>
+  </si>
+  <si>
+    <t>220024</t>
+  </si>
+  <si>
+    <t>默认头像19</t>
+  </si>
+  <si>
+    <t>head_19</t>
+  </si>
+  <si>
+    <t>220025</t>
+  </si>
+  <si>
+    <t>默认头像20</t>
+  </si>
+  <si>
+    <t>head_20</t>
+  </si>
+  <si>
+    <t>220027</t>
+  </si>
+  <si>
+    <t>默认头像框</t>
+  </si>
+  <si>
+    <t>headFrame_8</t>
+  </si>
+  <si>
+    <t>220037</t>
+  </si>
+  <si>
+    <t>220028</t>
+  </si>
+  <si>
+    <t>开服赠送</t>
+  </si>
+  <si>
+    <t>headFrame_9</t>
+  </si>
+  <si>
+    <t>220038</t>
+  </si>
+  <si>
+    <t>220029</t>
+  </si>
+  <si>
+    <t>代理头像框</t>
+  </si>
+  <si>
+    <t>headFrame_10</t>
+  </si>
+  <si>
+    <t>220039</t>
+  </si>
+  <si>
+    <t>220030</t>
+  </si>
+  <si>
+    <t>VIP头像框1</t>
+  </si>
+  <si>
+    <t>headFrame_1</t>
+  </si>
+  <si>
+    <t>220040</t>
+  </si>
+  <si>
+    <t>220031</t>
+  </si>
+  <si>
+    <t>VIP头像框2</t>
+  </si>
+  <si>
+    <t>headFrame_2</t>
+  </si>
+  <si>
+    <t>220041</t>
+  </si>
+  <si>
+    <t>220032</t>
+  </si>
+  <si>
+    <t>VIP头像框3</t>
+  </si>
+  <si>
+    <t>headFrame_3</t>
+  </si>
+  <si>
+    <t>220042</t>
+  </si>
+  <si>
+    <t>220033</t>
+  </si>
+  <si>
+    <t>VIP头像框4</t>
+  </si>
+  <si>
+    <t>headFrame_4</t>
+  </si>
+  <si>
+    <t>220043</t>
+  </si>
+  <si>
+    <t>220034</t>
+  </si>
+  <si>
+    <t>VIP头像框5</t>
+  </si>
+  <si>
+    <t>headFrame_5</t>
+  </si>
+  <si>
+    <t>220044</t>
+  </si>
+  <si>
+    <t>220035</t>
+  </si>
+  <si>
+    <t>VIP头像框6</t>
+  </si>
+  <si>
+    <t>headFrame_6</t>
+  </si>
+  <si>
+    <t>220045</t>
+  </si>
+  <si>
+    <t>220036</t>
+  </si>
+  <si>
+    <t>VIP头像框7</t>
+  </si>
+  <si>
+    <t>headFrame_7</t>
+  </si>
+  <si>
+    <t>220046</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -141,6 +444,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -154,6 +478,14 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -193,21 +525,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -256,20 +573,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -292,13 +595,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,12 +655,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -340,18 +697,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -364,36 +709,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -412,24 +733,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -443,12 +752,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,6 +828,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -553,21 +871,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,176 +927,179 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="22" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="31" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="22" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="31" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="23" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="23" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -802,52 +1108,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1118,10 +1424,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AI13"/>
+  <dimension ref="A1:AI33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1169,9 +1475,9 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="9"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="10"/>
       <c r="O1"/>
       <c r="P1"/>
       <c r="Q1"/>
@@ -1220,11 +1526,11 @@
         <v>10</v>
       </c>
       <c r="I2" s="4"/>
-      <c r="J2" s="10"/>
+      <c r="J2" s="11"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="9"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="10"/>
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
@@ -1271,11 +1577,11 @@
         <v>17</v>
       </c>
       <c r="I3" s="3"/>
-      <c r="J3" s="13"/>
+      <c r="J3" s="14"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="13"/>
+      <c r="L3" s="14"/>
       <c r="M3" s="3"/>
-      <c r="N3" s="9"/>
+      <c r="N3" s="10"/>
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
@@ -1298,83 +1604,676 @@
       <c r="AH3"/>
       <c r="AI3"/>
     </row>
-    <row r="4" spans="7:13">
-      <c r="G4" s="5"/>
-      <c r="H4"/>
-      <c r="I4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-    </row>
-    <row r="5" spans="7:13">
-      <c r="G5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-    </row>
-    <row r="6" spans="7:13">
-      <c r="G6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-    </row>
-    <row r="7" spans="7:13">
-      <c r="G7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-    </row>
-    <row r="8" spans="7:13">
-      <c r="G8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-    </row>
-    <row r="9" spans="3:13">
-      <c r="C9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-    </row>
-    <row r="10" spans="7:13">
-      <c r="G10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-    </row>
-    <row r="11" spans="3:13">
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="G11" s="6"/>
-      <c r="I11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-    </row>
-    <row r="12" spans="3:13">
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="G12" s="6"/>
-      <c r="I12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-    </row>
-    <row r="13" spans="3:13">
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
+    <row r="4" spans="2:13">
+      <c r="B4">
+        <v>1001</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5">
+        <v>1002</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6">
+        <v>1003</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7">
+        <v>1004</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8">
+        <v>1005</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9">
+        <v>1006</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10">
+        <v>1007</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11">
+        <v>1008</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12">
+        <v>1009</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13">
+        <v>1010</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14">
+        <v>1011</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15">
+        <v>1012</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16">
+        <v>1013</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17">
+        <v>1014</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18">
+        <v>1015</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19">
+        <v>1016</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20">
+        <v>1017</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21">
+        <v>1018</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22">
+        <v>1019</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23">
+        <v>1020</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24">
+        <v>6001</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25">
+        <v>6002</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>85</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26">
+        <v>6003</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>89</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27">
+        <v>6004</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28">
+        <v>6005</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>97</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29">
+        <v>6006</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30">
+        <v>6007</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>105</v>
+      </c>
+      <c r="G30">
+        <v>4</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31">
+        <v>6008</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>109</v>
+      </c>
+      <c r="G31">
+        <v>5</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32">
+        <v>6009</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>113</v>
+      </c>
+      <c r="G32">
+        <v>6</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33">
+        <v>6010</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D33" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>117</v>
+      </c>
+      <c r="G33">
+        <v>7</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>118</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/LubanConfig/Datas/AvatarConfig.xlsx
+++ b/LubanConfig/Datas/AvatarConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24135" windowHeight="8700"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="134">
   <si>
     <t>##var</t>
   </si>
@@ -291,6 +291,72 @@
     <t>head_20</t>
   </si>
   <si>
+    <t>220030</t>
+  </si>
+  <si>
+    <t>VIP头像1</t>
+  </si>
+  <si>
+    <t>vip_1</t>
+  </si>
+  <si>
+    <t>220054</t>
+  </si>
+  <si>
+    <t>220031</t>
+  </si>
+  <si>
+    <t>VIP头像2</t>
+  </si>
+  <si>
+    <t>vip_2</t>
+  </si>
+  <si>
+    <t>220032</t>
+  </si>
+  <si>
+    <t>VIP头像3</t>
+  </si>
+  <si>
+    <t>vip_3</t>
+  </si>
+  <si>
+    <t>220033</t>
+  </si>
+  <si>
+    <t>VIP头像4</t>
+  </si>
+  <si>
+    <t>vip_4</t>
+  </si>
+  <si>
+    <t>220034</t>
+  </si>
+  <si>
+    <t>VIP头像5</t>
+  </si>
+  <si>
+    <t>vip_5</t>
+  </si>
+  <si>
+    <t>220035</t>
+  </si>
+  <si>
+    <t>VIP头像6</t>
+  </si>
+  <si>
+    <t>vip_6</t>
+  </si>
+  <si>
+    <t>220036</t>
+  </si>
+  <si>
+    <t>VIP头像7</t>
+  </si>
+  <si>
+    <t>vip_7</t>
+  </si>
+  <si>
     <t>220027</t>
   </si>
   <si>
@@ -327,9 +393,6 @@
     <t>220039</t>
   </si>
   <si>
-    <t>220030</t>
-  </si>
-  <si>
     <t>VIP头像框1</t>
   </si>
   <si>
@@ -339,9 +402,6 @@
     <t>220040</t>
   </si>
   <si>
-    <t>220031</t>
-  </si>
-  <si>
     <t>VIP头像框2</t>
   </si>
   <si>
@@ -351,9 +411,6 @@
     <t>220041</t>
   </si>
   <si>
-    <t>220032</t>
-  </si>
-  <si>
     <t>VIP头像框3</t>
   </si>
   <si>
@@ -363,9 +420,6 @@
     <t>220042</t>
   </si>
   <si>
-    <t>220033</t>
-  </si>
-  <si>
     <t>VIP头像框4</t>
   </si>
   <si>
@@ -375,9 +429,6 @@
     <t>220043</t>
   </si>
   <si>
-    <t>220034</t>
-  </si>
-  <si>
     <t>VIP头像框5</t>
   </si>
   <si>
@@ -387,9 +438,6 @@
     <t>220044</t>
   </si>
   <si>
-    <t>220035</t>
-  </si>
-  <si>
     <t>VIP头像框6</t>
   </si>
   <si>
@@ -397,9 +445,6 @@
   </si>
   <si>
     <t>220045</t>
-  </si>
-  <si>
-    <t>220036</t>
   </si>
   <si>
     <t>VIP头像框7</t>
@@ -1072,7 +1117,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="7" applyAlignment="1"/>
@@ -1083,6 +1128,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="31" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1424,10 +1472,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AI33"/>
+  <dimension ref="A1:AI40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1475,9 +1523,9 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="10"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="11"/>
       <c r="O1"/>
       <c r="P1"/>
       <c r="Q1"/>
@@ -1526,11 +1574,11 @@
         <v>10</v>
       </c>
       <c r="I2" s="4"/>
-      <c r="J2" s="11"/>
+      <c r="J2" s="12"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="10"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="11"/>
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
@@ -1577,11 +1625,11 @@
         <v>17</v>
       </c>
       <c r="I3" s="3"/>
-      <c r="J3" s="14"/>
+      <c r="J3" s="15"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="14"/>
+      <c r="L3" s="15"/>
       <c r="M3" s="3"/>
-      <c r="N3" s="10"/>
+      <c r="N3" s="11"/>
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
@@ -1626,8 +1674,8 @@
       </c>
       <c r="I4" s="6"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
     </row>
     <row r="5" spans="2:13">
       <c r="B5">
@@ -1651,8 +1699,8 @@
       </c>
       <c r="I5" s="6"/>
       <c r="K5" s="6"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
     </row>
     <row r="6" spans="2:13">
       <c r="B6">
@@ -1676,8 +1724,8 @@
       </c>
       <c r="I6" s="6"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
     </row>
     <row r="7" spans="2:13">
       <c r="B7">
@@ -1701,8 +1749,8 @@
       </c>
       <c r="I7" s="6"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
     </row>
     <row r="8" spans="2:13">
       <c r="B8">
@@ -1726,8 +1774,8 @@
       </c>
       <c r="I8" s="6"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
     </row>
     <row r="9" spans="2:13">
       <c r="B9">
@@ -1751,8 +1799,8 @@
       </c>
       <c r="I9" s="6"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
     </row>
     <row r="10" spans="2:13">
       <c r="B10">
@@ -1776,8 +1824,8 @@
       </c>
       <c r="I10" s="6"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
     </row>
     <row r="11" spans="2:13">
       <c r="B11">
@@ -1801,8 +1849,8 @@
       </c>
       <c r="I11" s="6"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
     </row>
     <row r="12" spans="2:13">
       <c r="B12">
@@ -1826,8 +1874,8 @@
       </c>
       <c r="I12" s="6"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
     </row>
     <row r="13" spans="2:13">
       <c r="B13">
@@ -1851,8 +1899,8 @@
       </c>
       <c r="I13" s="6"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
     </row>
     <row r="14" spans="2:8">
       <c r="B14">
@@ -2056,16 +2104,16 @@
     </row>
     <row r="24" spans="2:8">
       <c r="B24">
-        <v>6001</v>
-      </c>
-      <c r="C24" s="5" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>79</v>
       </c>
       <c r="D24" t="s">
         <v>80</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="s">
         <v>81</v>
@@ -2076,203 +2124,343 @@
     </row>
     <row r="25" spans="2:8">
       <c r="B25">
-        <v>6002</v>
-      </c>
-      <c r="C25" s="5" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>83</v>
       </c>
       <c r="D25" t="s">
         <v>84</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="s">
         <v>85</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="2:8">
       <c r="B26">
-        <v>6003</v>
-      </c>
-      <c r="C26" s="5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" t="s">
         <v>87</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
         <v>88</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26" t="s">
-        <v>89</v>
-      </c>
       <c r="H26" s="5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="2:8">
       <c r="B27">
-        <v>6004</v>
-      </c>
-      <c r="C27" s="5" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
         <v>91</v>
       </c>
-      <c r="D27" t="s">
-        <v>92</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27" t="s">
-        <v>93</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
       <c r="H27" s="5" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="2:8">
       <c r="B28">
-        <v>6005</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>95</v>
+        <v>1025</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="D28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>97</v>
-      </c>
-      <c r="G28">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="2:8">
       <c r="B29">
-        <v>6006</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>99</v>
+        <v>1026</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="D29" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>101</v>
-      </c>
-      <c r="G29">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="2:8">
       <c r="B30">
-        <v>6007</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>103</v>
+        <v>1027</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="D30" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>105</v>
-      </c>
-      <c r="G30">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="2:8">
       <c r="B31">
-        <v>6008</v>
+        <v>6001</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D31" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>109</v>
-      </c>
-      <c r="G31">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="2:8">
       <c r="B32">
-        <v>6009</v>
+        <v>6002</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D32" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>113</v>
-      </c>
-      <c r="G32">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="2:8">
       <c r="B33">
-        <v>6010</v>
+        <v>6003</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D33" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33" t="s">
+        <v>111</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34">
+        <v>6004</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>114</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35">
+        <v>6005</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
         <v>117</v>
       </c>
-      <c r="G33">
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36">
+        <v>6006</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>120</v>
+      </c>
+      <c r="G36">
+        <v>3</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37">
+        <v>6007</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>123</v>
+      </c>
+      <c r="G37">
+        <v>4</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38">
+        <v>6008</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" t="s">
+        <v>125</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>126</v>
+      </c>
+      <c r="G38">
+        <v>5</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39">
+        <v>6009</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" t="s">
+        <v>128</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>129</v>
+      </c>
+      <c r="G39">
+        <v>6</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40">
+        <v>6010</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" t="s">
+        <v>131</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>132</v>
+      </c>
+      <c r="G40">
         <v>7</v>
       </c>
-      <c r="H33" s="5" t="s">
-        <v>118</v>
+      <c r="H40" s="5" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/LubanConfig/Datas/AvatarConfig.xlsx
+++ b/LubanConfig/Datas/AvatarConfig.xlsx
@@ -1117,7 +1117,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="7" applyAlignment="1"/>
@@ -1128,9 +1128,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="31" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1475,7 +1472,7 @@
   <dimension ref="A1:AI40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1523,9 +1520,9 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="11"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="10"/>
       <c r="O1"/>
       <c r="P1"/>
       <c r="Q1"/>
@@ -1574,11 +1571,11 @@
         <v>10</v>
       </c>
       <c r="I2" s="4"/>
-      <c r="J2" s="12"/>
+      <c r="J2" s="11"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="11"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="10"/>
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
@@ -1625,11 +1622,11 @@
         <v>17</v>
       </c>
       <c r="I3" s="3"/>
-      <c r="J3" s="15"/>
+      <c r="J3" s="14"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="15"/>
+      <c r="L3" s="14"/>
       <c r="M3" s="3"/>
-      <c r="N3" s="11"/>
+      <c r="N3" s="10"/>
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
@@ -1663,7 +1660,7 @@
         <v>19</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
@@ -1674,8 +1671,8 @@
       </c>
       <c r="I4" s="6"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
     </row>
     <row r="5" spans="2:13">
       <c r="B5">
@@ -1688,7 +1685,7 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
@@ -1699,8 +1696,8 @@
       </c>
       <c r="I5" s="6"/>
       <c r="K5" s="6"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
     </row>
     <row r="6" spans="2:13">
       <c r="B6">
@@ -1713,7 +1710,7 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
         <v>27</v>
@@ -1724,8 +1721,8 @@
       </c>
       <c r="I6" s="6"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
     </row>
     <row r="7" spans="2:13">
       <c r="B7">
@@ -1738,7 +1735,7 @@
         <v>29</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
         <v>30</v>
@@ -1749,8 +1746,8 @@
       </c>
       <c r="I7" s="6"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
     </row>
     <row r="8" spans="2:13">
       <c r="B8">
@@ -1763,7 +1760,7 @@
         <v>32</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="s">
         <v>33</v>
@@ -1774,8 +1771,8 @@
       </c>
       <c r="I8" s="6"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
     </row>
     <row r="9" spans="2:13">
       <c r="B9">
@@ -1788,7 +1785,7 @@
         <v>35</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="s">
         <v>36</v>
@@ -1799,8 +1796,8 @@
       </c>
       <c r="I9" s="6"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
     </row>
     <row r="10" spans="2:13">
       <c r="B10">
@@ -1813,7 +1810,7 @@
         <v>38</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="s">
         <v>39</v>
@@ -1824,8 +1821,8 @@
       </c>
       <c r="I10" s="6"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
     </row>
     <row r="11" spans="2:13">
       <c r="B11">
@@ -1838,7 +1835,7 @@
         <v>41</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="s">
         <v>42</v>
@@ -1849,8 +1846,8 @@
       </c>
       <c r="I11" s="6"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
     </row>
     <row r="12" spans="2:13">
       <c r="B12">
@@ -1863,7 +1860,7 @@
         <v>44</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="s">
         <v>45</v>
@@ -1874,8 +1871,8 @@
       </c>
       <c r="I12" s="6"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
     </row>
     <row r="13" spans="2:13">
       <c r="B13">
@@ -1888,7 +1885,7 @@
         <v>47</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="s">
         <v>48</v>
@@ -1899,8 +1896,8 @@
       </c>
       <c r="I13" s="6"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
     </row>
     <row r="14" spans="2:8">
       <c r="B14">
@@ -1913,7 +1910,7 @@
         <v>50</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
         <v>51</v>
@@ -1933,7 +1930,7 @@
         <v>53</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="s">
         <v>54</v>
@@ -1953,7 +1950,7 @@
         <v>56</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="s">
         <v>57</v>
@@ -1973,7 +1970,7 @@
         <v>59</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="s">
         <v>60</v>
@@ -1993,7 +1990,7 @@
         <v>62</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="s">
         <v>63</v>
@@ -2013,7 +2010,7 @@
         <v>65</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="s">
         <v>66</v>
@@ -2033,7 +2030,7 @@
         <v>68</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="s">
         <v>69</v>
@@ -2053,7 +2050,7 @@
         <v>71</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="s">
         <v>72</v>
@@ -2073,7 +2070,7 @@
         <v>74</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="s">
         <v>75</v>
@@ -2093,7 +2090,7 @@
         <v>77</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="s">
         <v>78</v>
@@ -2106,14 +2103,14 @@
       <c r="B24">
         <v>1021</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="5" t="s">
         <v>79</v>
       </c>
       <c r="D24" t="s">
         <v>80</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="s">
         <v>81</v>
@@ -2126,14 +2123,14 @@
       <c r="B25">
         <v>1022</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="5" t="s">
         <v>83</v>
       </c>
       <c r="D25" t="s">
         <v>84</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="s">
         <v>85</v>
@@ -2146,14 +2143,14 @@
       <c r="B26">
         <v>1023</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="5" t="s">
         <v>86</v>
       </c>
       <c r="D26" t="s">
         <v>87</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="s">
         <v>88</v>
@@ -2166,14 +2163,14 @@
       <c r="B27">
         <v>1024</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="5" t="s">
         <v>89</v>
       </c>
       <c r="D27" t="s">
         <v>90</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="s">
         <v>91</v>
@@ -2186,14 +2183,14 @@
       <c r="B28">
         <v>1025</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="5" t="s">
         <v>92</v>
       </c>
       <c r="D28" t="s">
         <v>93</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="s">
         <v>94</v>
@@ -2206,14 +2203,14 @@
       <c r="B29">
         <v>1026</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="5" t="s">
         <v>95</v>
       </c>
       <c r="D29" t="s">
         <v>96</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="s">
         <v>97</v>
@@ -2226,14 +2223,14 @@
       <c r="B30">
         <v>1027</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="5" t="s">
         <v>98</v>
       </c>
       <c r="D30" t="s">
         <v>99</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="s">
         <v>100</v>
@@ -2253,7 +2250,7 @@
         <v>102</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" t="s">
         <v>103</v>
@@ -2273,7 +2270,7 @@
         <v>106</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32" t="s">
         <v>107</v>
@@ -2293,7 +2290,7 @@
         <v>110</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33" t="s">
         <v>111</v>
@@ -2313,7 +2310,7 @@
         <v>113</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34" t="s">
         <v>114</v>
@@ -2336,7 +2333,7 @@
         <v>116</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35" t="s">
         <v>117</v>
@@ -2359,7 +2356,7 @@
         <v>119</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36" t="s">
         <v>120</v>
@@ -2382,7 +2379,7 @@
         <v>122</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37" t="s">
         <v>123</v>
@@ -2405,7 +2402,7 @@
         <v>125</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F38" t="s">
         <v>126</v>
@@ -2428,7 +2425,7 @@
         <v>128</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" t="s">
         <v>129</v>
@@ -2451,7 +2448,7 @@
         <v>131</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F40" t="s">
         <v>132</v>

--- a/LubanConfig/Datas/AvatarConfig.xlsx
+++ b/LubanConfig/Datas/AvatarConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="25755" windowHeight="10035"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -297,7 +297,7 @@
     <t>VIP头像1</t>
   </si>
   <si>
-    <t>vip_1</t>
+    <t>head_21</t>
   </si>
   <si>
     <t>220054</t>
@@ -309,7 +309,7 @@
     <t>VIP头像2</t>
   </si>
   <si>
-    <t>vip_2</t>
+    <t>head_22</t>
   </si>
   <si>
     <t>220032</t>
@@ -318,7 +318,7 @@
     <t>VIP头像3</t>
   </si>
   <si>
-    <t>vip_3</t>
+    <t>head_23</t>
   </si>
   <si>
     <t>220033</t>
@@ -327,7 +327,7 @@
     <t>VIP头像4</t>
   </si>
   <si>
-    <t>vip_4</t>
+    <t>head_24</t>
   </si>
   <si>
     <t>220034</t>
@@ -336,7 +336,7 @@
     <t>VIP头像5</t>
   </si>
   <si>
-    <t>vip_5</t>
+    <t>head_25</t>
   </si>
   <si>
     <t>220035</t>
@@ -345,7 +345,7 @@
     <t>VIP头像6</t>
   </si>
   <si>
-    <t>vip_6</t>
+    <t>head_26</t>
   </si>
   <si>
     <t>220036</t>
@@ -354,7 +354,7 @@
     <t>VIP头像7</t>
   </si>
   <si>
-    <t>vip_7</t>
+    <t>head_27</t>
   </si>
   <si>
     <t>220027</t>
@@ -1471,7 +1471,7 @@
   <sheetPr/>
   <dimension ref="A1:AI40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>

--- a/LubanConfig/Datas/AvatarConfig.xlsx
+++ b/LubanConfig/Datas/AvatarConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25755" windowHeight="10035"/>
+    <workbookView windowWidth="25755" windowHeight="10590"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="101">
   <si>
     <t>##var</t>
   </si>
@@ -96,7 +96,7 @@
     <t>名字(这里配置多语言id)</t>
   </si>
   <si>
-    <t>类型（0头像，1头像框）</t>
+    <t>类型（1头像，2头像框）</t>
   </si>
   <si>
     <t>资源名</t>
@@ -355,105 +355,6 @@
   </si>
   <si>
     <t>head_27</t>
-  </si>
-  <si>
-    <t>220027</t>
-  </si>
-  <si>
-    <t>默认头像框</t>
-  </si>
-  <si>
-    <t>headFrame_8</t>
-  </si>
-  <si>
-    <t>220037</t>
-  </si>
-  <si>
-    <t>220028</t>
-  </si>
-  <si>
-    <t>开服赠送</t>
-  </si>
-  <si>
-    <t>headFrame_9</t>
-  </si>
-  <si>
-    <t>220038</t>
-  </si>
-  <si>
-    <t>220029</t>
-  </si>
-  <si>
-    <t>代理头像框</t>
-  </si>
-  <si>
-    <t>headFrame_10</t>
-  </si>
-  <si>
-    <t>220039</t>
-  </si>
-  <si>
-    <t>VIP头像框1</t>
-  </si>
-  <si>
-    <t>headFrame_1</t>
-  </si>
-  <si>
-    <t>220040</t>
-  </si>
-  <si>
-    <t>VIP头像框2</t>
-  </si>
-  <si>
-    <t>headFrame_2</t>
-  </si>
-  <si>
-    <t>220041</t>
-  </si>
-  <si>
-    <t>VIP头像框3</t>
-  </si>
-  <si>
-    <t>headFrame_3</t>
-  </si>
-  <si>
-    <t>220042</t>
-  </si>
-  <si>
-    <t>VIP头像框4</t>
-  </si>
-  <si>
-    <t>headFrame_4</t>
-  </si>
-  <si>
-    <t>220043</t>
-  </si>
-  <si>
-    <t>VIP头像框5</t>
-  </si>
-  <si>
-    <t>headFrame_5</t>
-  </si>
-  <si>
-    <t>220044</t>
-  </si>
-  <si>
-    <t>VIP头像框6</t>
-  </si>
-  <si>
-    <t>headFrame_6</t>
-  </si>
-  <si>
-    <t>220045</t>
-  </si>
-  <si>
-    <t>VIP头像框7</t>
-  </si>
-  <si>
-    <t>headFrame_7</t>
-  </si>
-  <si>
-    <t>220046</t>
   </si>
 </sst>
 </file>
@@ -1117,12 +1018,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1469,10 +1373,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AI40"/>
+  <dimension ref="A1:AI30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1520,9 +1424,9 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="10"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="11"/>
       <c r="O1"/>
       <c r="P1"/>
       <c r="Q1"/>
@@ -1571,11 +1475,11 @@
         <v>10</v>
       </c>
       <c r="I2" s="4"/>
-      <c r="J2" s="11"/>
+      <c r="J2" s="12"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="10"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="11"/>
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
@@ -1622,11 +1526,11 @@
         <v>17</v>
       </c>
       <c r="I3" s="3"/>
-      <c r="J3" s="14"/>
+      <c r="J3" s="15"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="14"/>
+      <c r="L3" s="15"/>
       <c r="M3" s="3"/>
-      <c r="N3" s="10"/>
+      <c r="N3" s="11"/>
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
@@ -1650,10 +1554,10 @@
       <c r="AI3"/>
     </row>
     <row r="4" spans="2:13">
-      <c r="B4">
-        <v>1001</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="5">
+        <v>600001</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="s">
@@ -1665,20 +1569,20 @@
       <c r="F4" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="5" t="s">
+      <c r="G4" s="7"/>
+      <c r="H4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
+      <c r="I4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5">
-        <v>1002</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="5">
+        <v>600002</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D5" t="s">
@@ -1690,20 +1594,20 @@
       <c r="F5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="5" t="s">
+      <c r="G5" s="7"/>
+      <c r="H5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
+      <c r="I5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6">
-        <v>1003</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="5">
+        <v>600003</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D6" t="s">
@@ -1715,20 +1619,20 @@
       <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="5" t="s">
+      <c r="G6" s="7"/>
+      <c r="H6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
+      <c r="I6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
     </row>
     <row r="7" spans="2:13">
-      <c r="B7">
-        <v>1004</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="5">
+        <v>600004</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D7" t="s">
@@ -1740,20 +1644,20 @@
       <c r="F7" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="5" t="s">
+      <c r="G7" s="7"/>
+      <c r="H7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
+      <c r="I7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
     </row>
     <row r="8" spans="2:13">
-      <c r="B8">
-        <v>1005</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="5">
+        <v>600005</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D8" t="s">
@@ -1765,20 +1669,20 @@
       <c r="F8" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="5" t="s">
+      <c r="G8" s="7"/>
+      <c r="H8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
+      <c r="I8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
     </row>
     <row r="9" spans="2:13">
-      <c r="B9">
-        <v>1006</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="5">
+        <v>600006</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D9" t="s">
@@ -1790,20 +1694,20 @@
       <c r="F9" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="5" t="s">
+      <c r="G9" s="7"/>
+      <c r="H9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
+      <c r="I9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10">
-        <v>1007</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="5">
+        <v>600007</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D10" t="s">
@@ -1815,20 +1719,20 @@
       <c r="F10" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="5" t="s">
+      <c r="G10" s="7"/>
+      <c r="H10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
+      <c r="I10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
     </row>
     <row r="11" spans="2:13">
-      <c r="B11">
-        <v>1008</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="5">
+        <v>600008</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D11" t="s">
@@ -1840,20 +1744,20 @@
       <c r="F11" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="5" t="s">
+      <c r="G11" s="8"/>
+      <c r="H11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
+      <c r="I11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
     </row>
     <row r="12" spans="2:13">
-      <c r="B12">
-        <v>1009</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="5">
+        <v>600009</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>43</v>
       </c>
       <c r="D12" t="s">
@@ -1865,20 +1769,20 @@
       <c r="F12" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="5" t="s">
+      <c r="G12" s="8"/>
+      <c r="H12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
+      <c r="I12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
     </row>
     <row r="13" spans="2:13">
-      <c r="B13">
-        <v>1010</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="5">
+        <v>600010</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>46</v>
       </c>
       <c r="D13" t="s">
@@ -1890,20 +1794,20 @@
       <c r="F13" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="5" t="s">
+      <c r="G13" s="7"/>
+      <c r="H13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
+      <c r="I13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14">
-        <v>1011</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="5">
+        <v>600011</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D14" t="s">
@@ -1915,15 +1819,15 @@
       <c r="F14" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15">
-        <v>1012</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="5">
+        <v>600012</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D15" t="s">
@@ -1935,15 +1839,15 @@
       <c r="F15" t="s">
         <v>54</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16">
-        <v>1013</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="5">
+        <v>600013</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>55</v>
       </c>
       <c r="D16" t="s">
@@ -1955,15 +1859,15 @@
       <c r="F16" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17">
-        <v>1014</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="B17" s="5">
+        <v>600014</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>58</v>
       </c>
       <c r="D17" t="s">
@@ -1975,15 +1879,15 @@
       <c r="F17" t="s">
         <v>60</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18">
-        <v>1015</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="B18" s="5">
+        <v>600015</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D18" t="s">
@@ -1995,15 +1899,15 @@
       <c r="F18" t="s">
         <v>63</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19">
-        <v>1016</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="B19" s="5">
+        <v>600016</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>64</v>
       </c>
       <c r="D19" t="s">
@@ -2015,15 +1919,15 @@
       <c r="F19" t="s">
         <v>66</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20">
-        <v>1017</v>
-      </c>
-      <c r="C20" s="5" t="s">
+      <c r="B20" s="5">
+        <v>600017</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>67</v>
       </c>
       <c r="D20" t="s">
@@ -2035,15 +1939,15 @@
       <c r="F20" t="s">
         <v>69</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21">
-        <v>1018</v>
-      </c>
-      <c r="C21" s="5" t="s">
+      <c r="B21" s="5">
+        <v>600018</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>70</v>
       </c>
       <c r="D21" t="s">
@@ -2055,15 +1959,15 @@
       <c r="F21" t="s">
         <v>72</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22">
-        <v>1019</v>
-      </c>
-      <c r="C22" s="5" t="s">
+      <c r="B22" s="5">
+        <v>600019</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>73</v>
       </c>
       <c r="D22" t="s">
@@ -2075,15 +1979,15 @@
       <c r="F22" t="s">
         <v>75</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23">
-        <v>1020</v>
-      </c>
-      <c r="C23" s="5" t="s">
+      <c r="B23" s="5">
+        <v>600020</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>76</v>
       </c>
       <c r="D23" t="s">
@@ -2095,15 +1999,15 @@
       <c r="F23" t="s">
         <v>78</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24">
-        <v>1021</v>
-      </c>
-      <c r="C24" s="5" t="s">
+      <c r="B24" s="5">
+        <v>600021</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>79</v>
       </c>
       <c r="D24" t="s">
@@ -2115,15 +2019,18 @@
       <c r="F24" t="s">
         <v>81</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" s="6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25">
-        <v>1022</v>
-      </c>
-      <c r="C25" s="5" t="s">
+      <c r="B25" s="5">
+        <v>600022</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>83</v>
       </c>
       <c r="D25" t="s">
@@ -2135,15 +2042,18 @@
       <c r="F25" t="s">
         <v>85</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25" s="6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26">
-        <v>1023</v>
-      </c>
-      <c r="C26" s="5" t="s">
+      <c r="B26" s="5">
+        <v>600023</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>86</v>
       </c>
       <c r="D26" t="s">
@@ -2155,15 +2065,18 @@
       <c r="F26" t="s">
         <v>88</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26" s="6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="27" spans="2:8">
-      <c r="B27">
-        <v>1024</v>
-      </c>
-      <c r="C27" s="5" t="s">
+      <c r="B27" s="5">
+        <v>600024</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>89</v>
       </c>
       <c r="D27" t="s">
@@ -2175,15 +2088,18 @@
       <c r="F27" t="s">
         <v>91</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="G27">
+        <v>4</v>
+      </c>
+      <c r="H27" s="6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28">
-        <v>1025</v>
-      </c>
-      <c r="C28" s="5" t="s">
+      <c r="B28" s="5">
+        <v>600025</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>92</v>
       </c>
       <c r="D28" t="s">
@@ -2195,15 +2111,18 @@
       <c r="F28" t="s">
         <v>94</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="G28">
+        <v>5</v>
+      </c>
+      <c r="H28" s="6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="29" spans="2:8">
-      <c r="B29">
-        <v>1026</v>
-      </c>
-      <c r="C29" s="5" t="s">
+      <c r="B29" s="5">
+        <v>600026</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>95</v>
       </c>
       <c r="D29" t="s">
@@ -2215,15 +2134,18 @@
       <c r="F29" t="s">
         <v>97</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="G29">
+        <v>6</v>
+      </c>
+      <c r="H29" s="6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="30" spans="2:8">
-      <c r="B30">
-        <v>1027</v>
-      </c>
-      <c r="C30" s="5" t="s">
+      <c r="B30" s="5">
+        <v>600027</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>98</v>
       </c>
       <c r="D30" t="s">
@@ -2235,229 +2157,11 @@
       <c r="F30" t="s">
         <v>100</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="G30">
+        <v>7</v>
+      </c>
+      <c r="H30" s="6" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8">
-      <c r="B31">
-        <v>6001</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D31" t="s">
-        <v>102</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31" t="s">
-        <v>103</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="B32">
-        <v>6002</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D32" t="s">
-        <v>106</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32" t="s">
-        <v>107</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33">
-        <v>6003</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D33" t="s">
-        <v>110</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33" t="s">
-        <v>111</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8">
-      <c r="B34">
-        <v>6004</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D34" t="s">
-        <v>113</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34" t="s">
-        <v>114</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8">
-      <c r="B35">
-        <v>6005</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D35" t="s">
-        <v>116</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35" t="s">
-        <v>117</v>
-      </c>
-      <c r="G35">
-        <v>2</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8">
-      <c r="B36">
-        <v>6006</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D36" t="s">
-        <v>119</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36" t="s">
-        <v>120</v>
-      </c>
-      <c r="G36">
-        <v>3</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8">
-      <c r="B37">
-        <v>6007</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D37" t="s">
-        <v>122</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37" t="s">
-        <v>123</v>
-      </c>
-      <c r="G37">
-        <v>4</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8">
-      <c r="B38">
-        <v>6008</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D38" t="s">
-        <v>125</v>
-      </c>
-      <c r="E38">
-        <v>2</v>
-      </c>
-      <c r="F38" t="s">
-        <v>126</v>
-      </c>
-      <c r="G38">
-        <v>5</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8">
-      <c r="B39">
-        <v>6009</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D39" t="s">
-        <v>128</v>
-      </c>
-      <c r="E39">
-        <v>2</v>
-      </c>
-      <c r="F39" t="s">
-        <v>129</v>
-      </c>
-      <c r="G39">
-        <v>6</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8">
-      <c r="B40">
-        <v>6010</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D40" t="s">
-        <v>131</v>
-      </c>
-      <c r="E40">
-        <v>2</v>
-      </c>
-      <c r="F40" t="s">
-        <v>132</v>
-      </c>
-      <c r="G40">
-        <v>7</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>
